--- a/Coding test excel/coding test.xlsx
+++ b/Coding test excel/coding test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Skynet\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{844057D8-808E-4930-9EB8-93696FC2CA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{492C470F-58DA-43AE-A45D-900141A4AC3F}"/>
+    <workbookView windowWidth="19635" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -87,40 +78,46 @@
     <t>3. Identify the maximum sales amount for the West region.</t>
   </si>
   <si>
+    <t xml:space="preserve">Average= </t>
+  </si>
+  <si>
+    <t>Maximum=</t>
+  </si>
+  <si>
     <t>4. Analyze Sales by Region and Product</t>
   </si>
   <si>
+    <t>5. Use VLOOKUP to Get Product Information</t>
+  </si>
+  <si>
     <t>Row Labels</t>
   </si>
   <si>
+    <t>Sum of Sales Amount</t>
+  </si>
+  <si>
+    <t>Sales amount</t>
+  </si>
+  <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of Sales Amount</t>
-  </si>
-  <si>
-    <t>5. Use VLOOKUP to Get Product Information</t>
-  </si>
-  <si>
-    <t>Sales amount</t>
-  </si>
-  <si>
-    <t>Maximum=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average= </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,7 +125,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,24 +133,361 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -176,12 +510,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -191,37 +768,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Skynet" refreshedDate="45510.46224479167" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{4D4443BC-371D-439C-9E75-1AFBCAF02787}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" refreshedDate="45510.4622447917" refreshedBy="Skynet" recordCount="10">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D11" sheet="Sheet1"/>
   </cacheSource>
@@ -242,18 +862,9 @@
         <s v="West"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Sales Amount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="700" maxValue="1600"/>
-    </cacheField>
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2024-01-01T00:00:00" maxDate="2024-01-11T00:00:00"/>
-    </cacheField>
+    <cacheField name="Sales Amount" numFmtId="0"/>
+    <cacheField name="Date" numFmtId="58"/>
   </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -323,7 +934,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CABD0570-6923-4B7A-A315-04D9B1A16DB9}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" autoFormatId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" createdVersion="8" useAutoFormatting="1" indent="0" outline="1" outlineData="1" showDrill="1" multipleFieldFilters="0">
   <location ref="A18:B27" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -345,7 +956,7 @@
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="58" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="0"/>
@@ -386,13 +997,10 @@
   <dataFields count="1">
     <dataField name="Sum of Sales Amount" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -441,7 +1049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -474,26 +1082,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -526,23 +1117,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -704,256 +1278,252 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E46E54B-BEC4-4B98-A36C-74DAADFEDAD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.45" customWidth="1"/>
+    <col min="2" max="2" width="18.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.45" customWidth="1"/>
+    <col min="4" max="4" width="16.3666666666667" customWidth="1"/>
+    <col min="5" max="5" width="8.09166666666667" customWidth="1"/>
+    <col min="6" max="6" width="10.3666666666667" customWidth="1"/>
+    <col min="9" max="9" width="10.375"/>
+    <col min="13" max="13" width="9.63333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="32.25" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="16.5" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>1200</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>45292</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="16.5" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>1500</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>45293</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="16.5" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>800</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>45294</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="16.5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>700</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>45295</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="16.5" spans="1:4">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>1100</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>45296</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="16.5" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>1400</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>45297</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="16.5" spans="1:4">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>900</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>45298</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="16.5" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>850</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>45299</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="16.5" spans="1:4">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>1300</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>45300</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+    <row r="11" ht="16.5" spans="1:4">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>1600</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>45301</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="L13" s="5" t="s">
+      <c r="F13" s="1"/>
+      <c r="L13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14">
         <f>SUMIF(A2:A11,A2,C2:C11)</f>
         <v>3600</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <f>AVERAGEIF(B2:B11,B7,C2:C11)</f>
         <v>1500</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <f>_xlfn.MAXIFS(C2:C11,B2:B11,B5)</f>
         <v>850</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5" t="s">
+    <row r="17" ht="14.25" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:9">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="5" t="s">
+      <c r="H18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
+    <row r="19" ht="16.5" spans="1:9">
+      <c r="A19" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>3600</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G19" t="str">
@@ -964,19 +1534,19 @@
         <f>VLOOKUP(F19,A1:D11,3,)</f>
         <v>1200</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="9">
         <f>VLOOKUP(F19,A1:D11,4,)</f>
         <v>45292</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" ht="16.5" spans="1:9">
       <c r="A20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>3600</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G20" t="str">
@@ -987,19 +1557,19 @@
         <f t="shared" ref="H20:H28" si="1">VLOOKUP(F20,A2:D12,3,)</f>
         <v>1500</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="9">
         <f t="shared" ref="I20:I28" si="2">VLOOKUP(F20,A2:D12,4,)</f>
         <v>45293</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
+    <row r="21" ht="16.5" spans="1:9">
+      <c r="A21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>4500</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G21" t="str">
@@ -1010,19 +1580,19 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="9">
         <f t="shared" si="2"/>
         <v>45294</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" ht="16.5" spans="1:9">
       <c r="A22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>4500</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G22" t="str">
@@ -1033,19 +1603,19 @@
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="9">
         <f t="shared" si="2"/>
         <v>45295</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
+    <row r="23" ht="16.5" spans="1:9">
+      <c r="A23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>1700</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G23" t="str">
@@ -1056,19 +1626,19 @@
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="9">
         <f t="shared" si="2"/>
         <v>45296</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" ht="16.5" spans="1:9">
       <c r="A24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="7">
         <v>1700</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G24" t="str">
@@ -1079,19 +1649,19 @@
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="9">
         <f t="shared" si="2"/>
         <v>45297</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
+    <row r="25" ht="16.5" spans="1:9">
+      <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>1550</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G25" t="str">
@@ -1102,19 +1672,19 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="9">
         <f t="shared" si="2"/>
         <v>45298</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" ht="16.5" spans="1:9">
       <c r="A26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="7">
         <v>1550</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G26" t="str">
@@ -1125,19 +1695,19 @@
         <f t="shared" si="1"/>
         <v>850</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="9">
         <f t="shared" si="2"/>
         <v>45299</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="9">
+    <row r="27" ht="16.5" spans="1:9">
+      <c r="A27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7">
         <v>11350</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G27" t="str">
@@ -1148,13 +1718,13 @@
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="9">
         <f t="shared" si="2"/>
         <v>45300</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F28" s="2" t="s">
+    <row r="28" ht="16.5" spans="6:9">
+      <c r="F28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G28" t="str">
@@ -1165,29 +1735,34 @@
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="9">
         <f t="shared" si="2"/>
         <v>45301</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A09A91-7854-4DEA-ADA4-3EB9EFC01E31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>